--- a/Dataset Excel/Communique 8.xlsx
+++ b/Dataset Excel/Communique 8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75930E84-FEC8-4B12-B648-AA8EBB9593D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D386505-37F4-4E12-8FF8-2467CD959F82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D63AA42-D37C-4EEA-9A52-1BB2D5E05BF3}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <t>Sous Traitement</t>
   </si>
   <si>
-    <t>CMIF</t>
+    <t>CTMIT Fann</t>
   </si>
 </sst>
 </file>
@@ -627,9 +627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3234E3B-07AA-4C72-92A4-74363AA616A4}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B4"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1231,7 @@
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{B6A4068D-F80B-45C9-9915-E17AEAB0B9E2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
